--- a/static/bs/классификатор СП.xlsx
+++ b/static/bs/классификатор СП.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\evteev\Desktop\Develope\git_connect\static\bs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tminn\Desktop\python_3.12\GPT_ConnecT\static\bs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE3A0ACF-C816-4C50-B4F3-0BCEF166CCAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE64CD14-6F49-4FFC-B821-A0E1CA56A72A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1980" yWindow="1095" windowWidth="25230" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -4749,7 +4749,7 @@
   <dimension ref="A1:I1599"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+      <selection activeCell="C544" sqref="C544"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38810,6 +38810,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I1599" xr:uid="{609B159C-E50A-4D46-851D-143060A78C57}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
